--- a/Document/SpawnPointTable.xlsx
+++ b/Document/SpawnPointTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89ED31-5C0A-4AF5-B0A3-B0601027B7AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB4C9C8-14CC-4A7F-8BF9-C09D175741D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>PosX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,41 +46,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Level_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>DetronCrewman</t>
+  </si>
+  <si>
     <t>CharacterID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crewman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterID_3</t>
+  </si>
+  <si>
+    <t>Level_3</t>
+  </si>
+  <si>
+    <t>Number_3</t>
+  </si>
+  <si>
+    <t>CharacterID_4</t>
+  </si>
+  <si>
+    <t>Level_4</t>
+  </si>
+  <si>
+    <t>Number_4</t>
+  </si>
+  <si>
+    <t>Lancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -89,7 +118,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -404,26 +433,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="14.625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,34 +472,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>-140</v>
       </c>
@@ -481,39 +510,133 @@
         <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3">
+        <v>-140</v>
+      </c>
+      <c r="B3" s="3">
+        <v>600</v>
+      </c>
+      <c r="C3" s="3">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3">
+        <v>-140</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Document/SpawnPointTable.xlsx
+++ b/Document/SpawnPointTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB4C9C8-14CC-4A7F-8BF9-C09D175741D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC40F5-967C-4D77-8861-2D1EFFC36D5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>PosX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,17 +52,6 @@
   <si>
     <t>Number_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crewman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tech</t>
   </si>
   <si>
     <t>None</t>
@@ -433,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -481,22 +470,22 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -510,25 +499,25 @@
         <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -537,106 +526,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3">
-        <v>-140</v>
-      </c>
-      <c r="B3" s="3">
-        <v>600</v>
-      </c>
-      <c r="C3" s="3">
-        <v>190</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3">
-        <v>-140</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-500</v>
-      </c>
-      <c r="C4" s="3">
-        <v>190</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
         <v>0</v>
       </c>
     </row>
